--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_55.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.014988, 20.892721)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000'), ('0:00:01.540000', '0:00:06.680000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(7.6, 13.86)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.100000', '0:00:13.860000'), ('0:00:00.780000', '0:00:05.980000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3997289972899729</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'G', 'C', 'G', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:05.272756', '0:00:23.117291')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:40.821000', '0:00:52.135000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.98, 13.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.631133, 29.751133)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
